--- a/StructureDefinition-BvoNextInvitationIndicationDate.xlsx
+++ b/StructureDefinition-BvoNextInvitationIndicationDate.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BvoNextInvitationIndicationDate.xlsx
+++ b/StructureDefinition-BvoNextInvitationIndicationDate.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
